--- a/EOY-BussinessRelatedExpenses.xlsx
+++ b/EOY-BussinessRelatedExpenses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axsult1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2100AC47-F8F0-6546-92B9-AF92667DC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606AF46-E75B-9F4B-BFCB-DD5B671213A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17480" yWindow="740" windowWidth="17080" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020EOY" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
   <si>
     <t>Automobile and truck Expense</t>
   </si>
@@ -314,12 +314,40 @@
   <si>
     <t>In Final Tax Return prev</t>
   </si>
+  <si>
+    <t>Janitorial</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Repairs</t>
+  </si>
+  <si>
+    <t>New 2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50% Meal (c6) . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100% Meal 2023.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +404,21 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -415,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -435,6 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1302,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD70E9ED-5173-F046-AFE6-9502A7A0FB49}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1412,15 +1456,15 @@
         <v>5886.7049999999999</v>
       </c>
       <c r="D6">
-        <f>8254.59*3/4</f>
-        <v>6190.9425000000001</v>
+        <f>8254.59</f>
+        <v>8254.59</v>
       </c>
       <c r="E6">
         <f>6843.11</f>
         <v>6843.11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>31</v>
@@ -1571,51 +1615,93 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17">
+        <v>500</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17">
+        <v>900</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
-        <f>E16/4*3</f>
+      <c r="B19">
+        <f>E19/4*3</f>
         <v>3134.9549999999999</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>4575.58</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>4575.58</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>4179.9399999999996</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4">
-        <f>SUM(B2:B16)</f>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4">
+        <f>SUM(B2:B19)</f>
         <v>30360.71</v>
       </c>
-      <c r="C17" s="4">
-        <f>SUM(C2:C16)</f>
+      <c r="C20" s="4">
+        <f>SUM(C2:C19)</f>
         <v>39085.975000000006</v>
       </c>
-      <c r="D17" s="4">
-        <f>SUM(D2:D16)</f>
-        <v>38196.282500000008</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" t="s">
+      <c r="D20" s="4">
+        <f>SUM(D2:D19)</f>
+        <v>43459.930000000008</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="F18" s="16" t="s">
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="F21" s="16" t="s">
         <v>72</v>
       </c>
     </row>
